--- a/test/excel/SV_vcf_test1.xlsx
+++ b/test/excel/SV_vcf_test1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11820" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11820" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Sample HELP" sheetId="27" r:id="rId7"/>
     <sheet name="Experiment" sheetId="12" r:id="rId8"/>
     <sheet name="Experiment HELP" sheetId="13" r:id="rId9"/>
-    <sheet name="Assay" sheetId="14" r:id="rId10"/>
+    <sheet name="Dataset" sheetId="14" r:id="rId10"/>
     <sheet name="Assay HELP" sheetId="15" r:id="rId11"/>
     <sheet name="Variant Call (SV)" sheetId="22" r:id="rId12"/>
     <sheet name="Variant Call HELP" sheetId="23" r:id="rId13"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="520">
   <si>
     <t>Placement</t>
   </si>
@@ -1561,10 +1561,6 @@
   </si>
   <si>
     <t>## An Assay references 1 SampleSet and 1 Experiment, and resulting variations in 1 VCF file or in Variant Call/Region sheets (for structural variations only).</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t># Assay ID</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2127,6 +2123,14 @@
   </si>
   <si>
     <t>test-vcf/sv-test2.vcf</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Dataset Description</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t># Dataset ID</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3032,7 +3036,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -3042,12 +3046,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -3067,22 +3071,22 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -3333,7 +3337,7 @@
         <v>260</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
@@ -3390,7 +3394,7 @@
     </row>
     <row r="32" spans="1:26" ht="262.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
@@ -30028,19 +30032,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1003"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.796875" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.296875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="21" width="5.8984375" style="4" customWidth="1"/>
     <col min="22" max="22" width="9.69921875" style="4" customWidth="1"/>
     <col min="23" max="16384" width="12.59765625" style="4"/>
@@ -30058,7 +30062,7 @@
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>400</v>
+        <v>519</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>201</v>
@@ -30070,7 +30074,7 @@
         <v>247</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>203</v>
+        <v>518</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>204</v>
@@ -30093,11 +30097,11 @@
         <v>96</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30114,11 +30118,11 @@
         <v>96</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31237,7 +31241,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -31293,7 +31297,7 @@
         <v>271</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -31357,17 +31361,17 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -31413,7 +31417,7 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>207</v>
@@ -31455,13 +31459,13 @@
         <v>216</v>
       </c>
       <c r="O5" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="P5" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="P5" s="10" t="s">
-        <v>449</v>
-      </c>
       <c r="Q5" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R5" s="10" t="s">
         <v>220</v>
@@ -31491,7 +31495,7 @@
         <v>226</v>
       </c>
       <c r="AA5" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AB5" s="8" t="s">
         <v>227</v>
@@ -35338,12 +35342,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -35601,7 +35605,7 @@
         <v>362</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C36" s="75" t="s">
         <v>308</v>
@@ -35692,7 +35696,9 @@
   </sheetPr>
   <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -35715,17 +35721,17 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="30"/>
@@ -35748,7 +35754,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>239</v>
@@ -37529,12 +37535,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -37705,7 +37711,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -38096,7 +38102,7 @@
         <v>360</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>379</v>
@@ -38114,13 +38120,13 @@
         <v>246</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O1" s="22"/>
     </row>
@@ -38141,7 +38147,7 @@
         <v>351</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>85</v>
@@ -38159,13 +38165,13 @@
         <v>91</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -38185,7 +38191,7 @@
         <v>352</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>92</v>
@@ -38203,13 +38209,13 @@
         <v>98</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>99</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -38226,7 +38232,7 @@
         <v>353</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>101</v>
@@ -38244,13 +38250,13 @@
         <v>105</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>106</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -38276,7 +38282,7 @@
         <v>106</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>111</v>
@@ -38305,7 +38311,7 @@
         <v>116</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>117</v>
@@ -38331,7 +38337,7 @@
         <v>121</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>122</v>
@@ -38354,7 +38360,7 @@
         <v>111</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>125</v>
@@ -38374,7 +38380,7 @@
         <v>117</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>128</v>
@@ -38391,7 +38397,7 @@
         <v>130</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>131</v>
@@ -38408,7 +38414,7 @@
         <v>134</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>135</v>
@@ -38425,7 +38431,7 @@
         <v>122</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>138</v>
@@ -38442,7 +38448,7 @@
         <v>125</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>140</v>
@@ -38459,7 +38465,7 @@
         <v>143</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>144</v>
@@ -38476,7 +38482,7 @@
         <v>146</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -38490,7 +38496,7 @@
         <v>149</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="7:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -38504,7 +38510,7 @@
         <v>152</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="7:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -39583,7 +39589,7 @@
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39592,7 +39598,7 @@
         <v>205</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -39600,15 +39606,15 @@
         <v>167</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -39617,7 +39623,7 @@
     </row>
     <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -39627,10 +39633,10 @@
     </row>
     <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -39639,10 +39645,10 @@
     </row>
     <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -39651,10 +39657,10 @@
     </row>
     <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -39663,10 +39669,10 @@
     </row>
     <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -39674,7 +39680,7 @@
         <v>169</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -39702,7 +39708,7 @@
         <v>182</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -39722,12 +39728,12 @@
         <v>168</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B20" s="70">
         <v>45022</v>
@@ -39735,19 +39741,19 @@
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B21" s="70"/>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="69" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B22" s="70"/>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="69" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B23" s="6"/>
     </row>
@@ -40779,7 +40785,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40788,7 +40794,7 @@
         <v>205</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -40796,55 +40802,55 @@
         <v>167</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -40852,7 +40858,7 @@
         <v>169</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -40860,7 +40866,7 @@
         <v>170</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -40868,7 +40874,7 @@
         <v>184</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -40876,7 +40882,7 @@
         <v>183</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -40884,7 +40890,7 @@
         <v>182</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -40892,7 +40898,7 @@
         <v>171</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -40900,7 +40906,7 @@
         <v>172</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -40908,39 +40914,39 @@
         <v>168</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="69" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -42008,7 +42014,7 @@
         <v>94</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -42026,7 +42032,7 @@
         <v>87</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -42144,7 +42150,7 @@
         <v>177</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -42191,7 +42197,7 @@
   <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -42257,7 +42263,7 @@
         <v>391</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>327</v>
@@ -42307,10 +42313,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -42334,10 +42340,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
@@ -42361,10 +42367,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C8" s="6">
         <v>3</v>
@@ -42388,10 +42394,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C9" s="6">
         <v>4</v>
@@ -44277,10 +44283,10 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="73"/>
       <c r="B4" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C4" s="46" t="s">
         <v>487</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -44448,7 +44454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -44472,7 +44478,7 @@
         <v>396</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>187</v>
@@ -44516,7 +44522,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>85</v>
@@ -44528,16 +44534,16 @@
         <v>86</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
@@ -44775,10 +44781,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
